--- a/lab3/lab3 excel.xlsx
+++ b/lab3/lab3 excel.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardqiu/Desktop/Computer_Network/lab3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.qiu\Desktop\Computer_Network\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9428AB4-C7C0-224F-9076-D9E6EAFDE8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CFD20-815D-4CA0-9A07-53A4CFE71033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="2200" windowWidth="38400" windowHeight="21100" xr2:uid="{3D23E154-5532-A544-B8B1-614FAFCF8A06}"/>
+    <workbookView xWindow="30612" yWindow="-204" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{3D23E154-5532-A544-B8B1-614FAFCF8A06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="q5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>Call_ARRIVALRATE</t>
   </si>
@@ -96,6 +97,24 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Blocking P</t>
+  </si>
+  <si>
+    <t>Taxi P</t>
+  </si>
+  <si>
+    <t>D(Time to transport)</t>
+  </si>
+  <si>
+    <t>W(Time to arrive to customer)</t>
+  </si>
+  <si>
+    <t>G(Give up time)</t>
+  </si>
+  <si>
+    <t>N taxis</t>
   </si>
 </sst>
 </file>
@@ -3432,27 +3451,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3208252-7956-AD46-A008-3C1850DF4AF4}">
   <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O50" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="O50" zoomScale="125" workbookViewId="0">
       <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" customWidth="1"/>
     <col min="21" max="21" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.83203125" style="1"/>
-    <col min="26" max="26" width="10.83203125" customWidth="1"/>
+    <col min="22" max="23" width="10.796875" style="1"/>
+    <col min="26" max="26" width="10.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.24</v>
       </c>
@@ -3626,7 +3645,7 @@
         <v>0.90909090910000001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.24</v>
       </c>
@@ -3714,7 +3733,7 @@
         <v>0.81967213110000003</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.24</v>
       </c>
@@ -3802,7 +3821,7 @@
         <v>0.73206442169999997</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.24</v>
       </c>
@@ -3890,7 +3909,7 @@
         <v>0.64666321780000002</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.24</v>
       </c>
@@ -3978,7 +3997,7 @@
         <v>0.56395217689999999</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.24</v>
       </c>
@@ -4066,7 +4085,7 @@
         <v>0.4845149037</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.24</v>
       </c>
@@ -4154,7 +4173,7 @@
         <v>0.40904078300000002</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -4242,7 +4261,7 @@
         <v>0.33831843290000002</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.24</v>
       </c>
@@ -4330,7 +4349,7 @@
         <v>0.27320794390000003</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.24</v>
       </c>
@@ -4418,7 +4437,7 @@
         <v>0.21458234309999999</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>0.01</v>
       </c>
@@ -4490,7 +4509,7 @@
         <v>0.1632323332</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.02</v>
       </c>
@@ -4578,7 +4597,7 @@
         <v>0.1197391884</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.02</v>
       </c>
@@ -4666,7 +4685,7 @@
         <v>8.4338862700000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.02</v>
       </c>
@@ -4751,7 +4770,7 @@
         <v>5.6819143400000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.02</v>
       </c>
@@ -4836,7 +4855,7 @@
         <v>3.6496945500000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.02</v>
       </c>
@@ -4921,7 +4940,7 @@
         <v>2.2301872E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.02</v>
       </c>
@@ -5006,7 +5025,7 @@
         <v>1.29488752E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.02</v>
       </c>
@@ -5091,7 +5110,7 @@
         <v>7.1424382000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.02</v>
       </c>
@@ -5176,7 +5195,7 @@
         <v>3.7450995000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.02</v>
       </c>
@@ -5261,7 +5280,7 @@
         <v>1.8690499000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.02</v>
       </c>
@@ -5279,7 +5298,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.02</v>
       </c>
@@ -5294,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G24">
         <v>1</v>
       </c>
@@ -5314,7 +5333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>2</v>
       </c>
@@ -5334,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G26">
         <v>3</v>
       </c>
@@ -5354,7 +5373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G27">
         <v>4</v>
       </c>
@@ -5374,7 +5393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>5</v>
       </c>
@@ -5394,7 +5413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>6</v>
       </c>
@@ -5414,7 +5433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>7</v>
       </c>
@@ -5434,7 +5453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G31">
         <v>8</v>
       </c>
@@ -5454,7 +5473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>9</v>
       </c>
@@ -5474,7 +5493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>10</v>
       </c>
@@ -5494,7 +5513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>11</v>
       </c>
@@ -5514,7 +5533,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>12</v>
       </c>
@@ -5528,7 +5547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>13</v>
       </c>
@@ -5542,7 +5561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>14</v>
       </c>
@@ -5556,7 +5575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>15</v>
       </c>
@@ -5570,7 +5589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>16</v>
       </c>
@@ -5584,7 +5603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>17</v>
       </c>
@@ -5598,7 +5617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>18</v>
       </c>
@@ -5612,7 +5631,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>19</v>
       </c>
@@ -5626,7 +5645,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>20</v>
       </c>
@@ -5640,12 +5659,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:26" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H51" t="s">
         <v>12</v>
       </c>
@@ -5656,7 +5675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:32" x14ac:dyDescent="0.3">
       <c r="I53" t="s">
         <v>9</v>
       </c>
@@ -5673,7 +5692,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:32" x14ac:dyDescent="0.3">
       <c r="I54" s="3">
         <v>1</v>
       </c>
@@ -5741,7 +5760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H55" t="s">
         <v>14</v>
       </c>
@@ -5797,7 +5816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H56">
         <v>1</v>
       </c>
@@ -5807,7 +5826,7 @@
       <c r="V56"/>
       <c r="W56"/>
     </row>
-    <row r="57" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H57">
         <v>2</v>
       </c>
@@ -5827,7 +5846,7 @@
         <v>0.79782311340000001</v>
       </c>
     </row>
-    <row r="58" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H58">
         <v>3</v>
       </c>
@@ -5865,7 +5884,7 @@
         <v>0.93985098519999999</v>
       </c>
     </row>
-    <row r="59" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H59">
         <v>4</v>
       </c>
@@ -5903,7 +5922,7 @@
         <v>0.96751953199999996</v>
       </c>
     </row>
-    <row r="60" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H60">
         <v>5</v>
       </c>
@@ -5941,7 +5960,7 @@
         <v>0.98611945810000001</v>
       </c>
     </row>
-    <row r="61" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H61">
         <v>6</v>
       </c>
@@ -5982,7 +6001,7 @@
         <v>0.99520937050000002</v>
       </c>
     </row>
-    <row r="62" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H62">
         <v>7</v>
       </c>
@@ -6020,7 +6039,7 @@
         <v>0.9986125387</v>
       </c>
     </row>
-    <row r="63" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H63">
         <v>8</v>
       </c>
@@ -6058,7 +6077,7 @@
         <v>0.99965164660000005</v>
       </c>
     </row>
-    <row r="64" spans="8:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:32" x14ac:dyDescent="0.3">
       <c r="H64">
         <v>9</v>
       </c>
@@ -6096,7 +6115,7 @@
         <v>0.99992249950000001</v>
       </c>
     </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H65">
         <v>10</v>
       </c>
@@ -6134,7 +6153,7 @@
         <v>0.99998449580000004</v>
       </c>
     </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H66">
         <v>11</v>
       </c>
@@ -6172,7 +6191,7 @@
         <v>0.9999971809</v>
       </c>
     </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H67">
         <v>12</v>
       </c>
@@ -6210,7 +6229,7 @@
         <v>0.99999953009999998</v>
       </c>
     </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H68">
         <v>13</v>
       </c>
@@ -6248,7 +6267,7 @@
         <v>0.99999992770000001</v>
       </c>
     </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H69">
         <v>14</v>
       </c>
@@ -6286,7 +6305,7 @@
         <v>0.99999998970000004</v>
       </c>
     </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H70">
         <v>15</v>
       </c>
@@ -6324,7 +6343,7 @@
         <v>0.9999999986</v>
       </c>
     </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H71">
         <v>16</v>
       </c>
@@ -6362,7 +6381,7 @@
         <v>0.99999999979999998</v>
       </c>
     </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H72">
         <v>17</v>
       </c>
@@ -6400,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H73">
         <v>18</v>
       </c>
@@ -6438,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H74">
         <v>19</v>
       </c>
@@ -6476,7 +6495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H75">
         <v>20</v>
       </c>
@@ -6514,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:26" x14ac:dyDescent="0.3">
       <c r="I76" t="s">
         <v>11</v>
       </c>
@@ -6523,7 +6542,7 @@
       </c>
       <c r="W76"/>
     </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H77">
         <v>1</v>
       </c>
@@ -6533,7 +6552,7 @@
       <c r="V77"/>
       <c r="W77"/>
     </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H78">
         <v>2</v>
       </c>
@@ -6548,7 +6567,7 @@
       </c>
       <c r="W78"/>
     </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H79">
         <v>3</v>
       </c>
@@ -6569,7 +6588,7 @@
         <v>0.6538663186</v>
       </c>
     </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:26" x14ac:dyDescent="0.3">
       <c r="H80">
         <v>4</v>
       </c>
@@ -6590,7 +6609,7 @@
         <v>0.81308781210000003</v>
       </c>
     </row>
-    <row r="81" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H81">
         <v>5</v>
       </c>
@@ -6611,7 +6630,7 @@
         <v>0.92012299659999996</v>
       </c>
     </row>
-    <row r="82" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H82">
         <v>6</v>
       </c>
@@ -6632,7 +6651,7 @@
         <v>0.97243183070000005</v>
       </c>
     </row>
-    <row r="83" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H83">
         <v>7</v>
       </c>
@@ -6653,7 +6672,7 @@
         <v>0.99201571170000002</v>
       </c>
     </row>
-    <row r="84" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H84">
         <v>8</v>
       </c>
@@ -6674,7 +6693,7 @@
         <v>0.99799536479999995</v>
       </c>
     </row>
-    <row r="85" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H85">
         <v>9</v>
       </c>
@@ -6695,7 +6714,7 @@
         <v>0.99955401529999999</v>
       </c>
     </row>
-    <row r="86" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H86">
         <v>10</v>
       </c>
@@ -6716,7 +6735,7 @@
         <v>0.99991077920000004</v>
       </c>
     </row>
-    <row r="87" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H87">
         <v>11</v>
       </c>
@@ -6737,7 +6756,7 @@
         <v>0.99998377709999997</v>
       </c>
     </row>
-    <row r="88" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H88">
         <v>12</v>
       </c>
@@ -6758,7 +6777,7 @@
         <v>0.9999972962</v>
       </c>
     </row>
-    <row r="89" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H89">
         <v>13</v>
       </c>
@@ -6779,7 +6798,7 @@
         <v>0.999999584</v>
       </c>
     </row>
-    <row r="90" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H90">
         <v>14</v>
       </c>
@@ -6800,7 +6819,7 @@
         <v>0.99999994059999997</v>
       </c>
     </row>
-    <row r="91" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H91">
         <v>15</v>
       </c>
@@ -6821,7 +6840,7 @@
         <v>0.99999999210000001</v>
       </c>
     </row>
-    <row r="92" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H92">
         <v>16</v>
       </c>
@@ -6842,7 +6861,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="93" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H93">
         <v>17</v>
       </c>
@@ -6863,7 +6882,7 @@
         <v>0.99999999989999999</v>
       </c>
     </row>
-    <row r="94" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H94">
         <v>18</v>
       </c>
@@ -6884,7 +6903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H95">
         <v>19</v>
       </c>
@@ -6905,7 +6924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H96">
         <v>20</v>
       </c>
@@ -6926,7 +6945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:24" x14ac:dyDescent="0.3">
       <c r="I97" t="s">
         <v>16</v>
       </c>
@@ -6935,7 +6954,7 @@
       </c>
       <c r="W97"/>
     </row>
-    <row r="98" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H98">
         <v>1</v>
       </c>
@@ -6945,7 +6964,7 @@
       <c r="V98"/>
       <c r="W98"/>
     </row>
-    <row r="99" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H99">
         <v>2</v>
       </c>
@@ -6960,7 +6979,7 @@
       </c>
       <c r="W99"/>
     </row>
-    <row r="100" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H100">
         <v>3</v>
       </c>
@@ -6981,7 +7000,7 @@
         <v>0.60777915439999997</v>
       </c>
     </row>
-    <row r="101" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H101">
         <v>4</v>
       </c>
@@ -7002,7 +7021,7 @@
         <v>0.78820074340000001</v>
       </c>
     </row>
-    <row r="102" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H102">
         <v>5</v>
       </c>
@@ -7023,7 +7042,7 @@
         <v>0.90948749719999999</v>
       </c>
     </row>
-    <row r="103" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H103">
         <v>6</v>
       </c>
@@ -7044,7 +7063,7 @@
         <v>0.96876117159999997</v>
       </c>
     </row>
-    <row r="104" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H104">
         <v>7</v>
       </c>
@@ -7065,7 +7084,7 @@
         <v>0.99095261609999996</v>
       </c>
     </row>
-    <row r="105" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H105">
         <v>8</v>
       </c>
@@ -7086,7 +7105,7 @@
         <v>0.99772845070000005</v>
       </c>
     </row>
-    <row r="106" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H106">
         <v>9</v>
       </c>
@@ -7107,7 +7126,7 @@
         <v>0.99949463309999997</v>
       </c>
     </row>
-    <row r="107" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H107">
         <v>10</v>
       </c>
@@ -7128,7 +7147,7 @@
         <v>0.9998988996</v>
       </c>
     </row>
-    <row r="108" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H108">
         <v>11</v>
       </c>
@@ -7149,7 +7168,7 @@
         <v>0.9999816171</v>
       </c>
     </row>
-    <row r="109" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H109">
         <v>12</v>
       </c>
@@ -7170,7 +7189,7 @@
         <v>0.99999693609999996</v>
       </c>
     </row>
-    <row r="110" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H110">
         <v>13</v>
       </c>
@@ -7191,7 +7210,7 @@
         <v>0.99999952859999997</v>
       </c>
     </row>
-    <row r="111" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H111">
         <v>14</v>
       </c>
@@ -7212,7 +7231,7 @@
         <v>0.99999993269999998</v>
       </c>
     </row>
-    <row r="112" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H112">
         <v>15</v>
       </c>
@@ -7233,7 +7252,7 @@
         <v>0.99999999100000003</v>
       </c>
     </row>
-    <row r="113" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H113">
         <v>16</v>
       </c>
@@ -7254,7 +7273,7 @@
         <v>0.99999999890000002</v>
       </c>
     </row>
-    <row r="114" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H114">
         <v>17</v>
       </c>
@@ -7275,7 +7294,7 @@
         <v>0.99999999989999999</v>
       </c>
     </row>
-    <row r="115" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H115">
         <v>18</v>
       </c>
@@ -7296,7 +7315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H116">
         <v>19</v>
       </c>
@@ -7317,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="8:24" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:24" x14ac:dyDescent="0.3">
       <c r="H117">
         <v>20</v>
       </c>
@@ -7343,4 +7362,3178 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5782D708-4CF5-48A8-AB14-BB595C873BD3}">
+  <dimension ref="A1:O83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:G83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.42851</v>
+      </c>
+      <c r="C2">
+        <v>0.88992000000000004</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0.33291999999999999</v>
+      </c>
+      <c r="K2">
+        <v>0.90913999999999995</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.42835000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.78242</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0.33289000000000002</v>
+      </c>
+      <c r="K3">
+        <v>0.81972</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.42858000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.67815000000000003</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.33331</v>
+      </c>
+      <c r="K4">
+        <v>0.73192000000000002</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.42818000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.57850000000000001</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0.33323000000000003</v>
+      </c>
+      <c r="K5">
+        <v>0.64642999999999995</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.42832999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.48332000000000003</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0.33333000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.56398000000000004</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.42853999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.39451000000000003</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0.33306000000000002</v>
+      </c>
+      <c r="K7">
+        <v>0.48487999999999998</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.42854999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.31297000000000003</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>0.33335999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.40942000000000001</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.42868000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.24018</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0.33354</v>
+      </c>
+      <c r="K9">
+        <v>0.33833999999999997</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.42880000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.17738999999999999</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0.33324999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.27332000000000001</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.12565000000000001</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0.33348</v>
+      </c>
+      <c r="K11">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.42858000000000002</v>
+      </c>
+      <c r="C12">
+        <v>8.4370000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>0.33316000000000001</v>
+      </c>
+      <c r="K12">
+        <v>0.16325999999999999</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.42853000000000002</v>
+      </c>
+      <c r="C13">
+        <v>5.3580000000000003E-2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0.33328000000000002</v>
+      </c>
+      <c r="K13">
+        <v>0.12001000000000001</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.42881999999999998</v>
+      </c>
+      <c r="C14">
+        <v>3.2219999999999999E-2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>0.33322000000000002</v>
+      </c>
+      <c r="K14">
+        <v>8.4519999999999998E-2</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.42858000000000002</v>
+      </c>
+      <c r="C15">
+        <v>1.8190000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>0.33313999999999999</v>
+      </c>
+      <c r="K15">
+        <v>5.713E-2</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.4289</v>
+      </c>
+      <c r="C16">
+        <v>9.7900000000000001E-3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>0.33300999999999997</v>
+      </c>
+      <c r="K16">
+        <v>3.6519999999999997E-2</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.42853000000000002</v>
+      </c>
+      <c r="C17">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>0.33317999999999998</v>
+      </c>
+      <c r="K17">
+        <v>2.2339999999999999E-2</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.42865999999999999</v>
+      </c>
+      <c r="C18">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>0.33335999999999999</v>
+      </c>
+      <c r="K18">
+        <v>1.295E-2</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.42845</v>
+      </c>
+      <c r="C19">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>0.33316000000000001</v>
+      </c>
+      <c r="K19">
+        <v>7.1799999999999998E-3</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.42865999999999999</v>
+      </c>
+      <c r="C20">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="K20">
+        <v>3.7499999999999999E-3</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="C22">
+        <v>0.93601999999999996</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.23064000000000001</v>
+      </c>
+      <c r="K22">
+        <v>0.92451000000000005</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0.13031999999999999</v>
+      </c>
+      <c r="C23">
+        <v>0.87263999999999997</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0.23075000000000001</v>
+      </c>
+      <c r="K23">
+        <v>0.84982999999999997</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.80974000000000002</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>0.23066999999999999</v>
+      </c>
+      <c r="K24">
+        <v>0.77629999999999999</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>0.1303</v>
+      </c>
+      <c r="C25">
+        <v>0.74765999999999999</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>0.23074</v>
+      </c>
+      <c r="K25">
+        <v>0.70396999999999998</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.13042999999999999</v>
+      </c>
+      <c r="C26">
+        <v>0.68635000000000002</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>0.23119999999999999</v>
+      </c>
+      <c r="K26">
+        <v>0.63246000000000002</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>0.13038</v>
+      </c>
+      <c r="C27">
+        <v>0.62600999999999996</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>0.23085</v>
+      </c>
+      <c r="K27">
+        <v>0.56369000000000002</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>0.13039000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.56672999999999996</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>0.23080999999999999</v>
+      </c>
+      <c r="K28">
+        <v>0.49642999999999998</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>0.13036</v>
+      </c>
+      <c r="C29">
+        <v>0.50924999999999998</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
+        <v>0.23052</v>
+      </c>
+      <c r="K29">
+        <v>0.43224000000000001</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>0.13048000000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.45212000000000002</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>0.23078000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0.37036000000000002</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>0.13045000000000001</v>
+      </c>
+      <c r="C31">
+        <v>0.39851999999999999</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>0.23083999999999999</v>
+      </c>
+      <c r="K31">
+        <v>0.31228</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>0.13027</v>
+      </c>
+      <c r="C32">
+        <v>0.34658</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="I32">
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <v>0.23107</v>
+      </c>
+      <c r="K32">
+        <v>0.25779000000000002</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>0.13042999999999999</v>
+      </c>
+      <c r="C33">
+        <v>0.29682999999999998</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>0.23082</v>
+      </c>
+      <c r="K33">
+        <v>0.20818999999999999</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>0.13059000000000001</v>
+      </c>
+      <c r="C34">
+        <v>0.25035000000000002</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>13</v>
+      </c>
+      <c r="J34">
+        <v>0.23061999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0.16394</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>0.13042000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.2074</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>0.23080000000000001</v>
+      </c>
+      <c r="K35">
+        <v>0.12529000000000001</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>0.1305</v>
+      </c>
+      <c r="C36">
+        <v>0.16816999999999999</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>0.23086999999999999</v>
+      </c>
+      <c r="K36">
+        <v>9.2770000000000005E-2</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>0.1305</v>
+      </c>
+      <c r="C37">
+        <v>0.1333</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <v>0.23072999999999999</v>
+      </c>
+      <c r="K37">
+        <v>6.6390000000000005E-2</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>0.13064999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.10251</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>17</v>
+      </c>
+      <c r="J38">
+        <v>0.23085</v>
+      </c>
+      <c r="K38">
+        <v>4.573E-2</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39">
+        <v>0.13053000000000001</v>
+      </c>
+      <c r="C39">
+        <v>7.7560000000000004E-2</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>18</v>
+      </c>
+      <c r="J39">
+        <v>0.23053999999999999</v>
+      </c>
+      <c r="K39">
+        <v>3.039E-2</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40">
+        <v>0.13025999999999999</v>
+      </c>
+      <c r="C40">
+        <v>5.5960000000000003E-2</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>19</v>
+      </c>
+      <c r="J40">
+        <v>0.23053999999999999</v>
+      </c>
+      <c r="K40">
+        <v>1.917E-2</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>0.42863000000000001</v>
+      </c>
+      <c r="C42">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0.20011000000000001</v>
+      </c>
+      <c r="K42">
+        <v>0.90112000000000003</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>21</v>
+      </c>
+      <c r="B43">
+        <v>0.42874000000000001</v>
+      </c>
+      <c r="C43">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>0.20004</v>
+      </c>
+      <c r="K43">
+        <v>0.80420000000000003</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>0.42852000000000001</v>
+      </c>
+      <c r="C44">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>0.19989999999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.70962000000000003</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <v>0.42870000000000003</v>
+      </c>
+      <c r="C45">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="I45">
+        <v>4</v>
+      </c>
+      <c r="J45">
+        <v>0.20021</v>
+      </c>
+      <c r="K45">
+        <v>0.61795999999999995</v>
+      </c>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <v>0.42870999999999998</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>0.19997000000000001</v>
+      </c>
+      <c r="K46">
+        <v>0.53010000000000002</v>
+      </c>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>0.42869000000000002</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>6</v>
+      </c>
+      <c r="J47">
+        <v>0.19983999999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.44624999999999998</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>26</v>
+      </c>
+      <c r="B48">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>0.20002</v>
+      </c>
+      <c r="K48">
+        <v>0.36752000000000001</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>27</v>
+      </c>
+      <c r="B49">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>0.20024</v>
+      </c>
+      <c r="K49">
+        <v>0.29542000000000002</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>28</v>
+      </c>
+      <c r="B50">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50">
+        <v>0.20008999999999999</v>
+      </c>
+      <c r="K50">
+        <v>0.23005999999999999</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="I51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>0.19993</v>
+      </c>
+      <c r="K51">
+        <v>0.17371</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>30</v>
+      </c>
+      <c r="B52">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <v>11</v>
+      </c>
+      <c r="J52">
+        <v>0.20013</v>
+      </c>
+      <c r="K52">
+        <v>0.12543000000000001</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>12</v>
+      </c>
+      <c r="J53">
+        <v>0.19982</v>
+      </c>
+      <c r="K53">
+        <v>8.7309999999999999E-2</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="I54">
+        <v>13</v>
+      </c>
+      <c r="J54">
+        <v>0.19974</v>
+      </c>
+      <c r="K54">
+        <v>5.7610000000000001E-2</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="I55">
+        <v>14</v>
+      </c>
+      <c r="J55">
+        <v>0.20013</v>
+      </c>
+      <c r="K55">
+        <v>3.619E-2</v>
+      </c>
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="I56">
+        <v>15</v>
+      </c>
+      <c r="J56">
+        <v>0.19999</v>
+      </c>
+      <c r="K56">
+        <v>2.1510000000000001E-2</v>
+      </c>
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>35</v>
+      </c>
+      <c r="B57">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>3</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <v>16</v>
+      </c>
+      <c r="J57">
+        <v>0.20008000000000001</v>
+      </c>
+      <c r="K57">
+        <v>1.217E-2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>36</v>
+      </c>
+      <c r="B58">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>3</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="I58">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>0.19966</v>
+      </c>
+      <c r="K58">
+        <v>6.6100000000000004E-3</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <v>18</v>
+      </c>
+      <c r="J59">
+        <v>0.19983000000000001</v>
+      </c>
+      <c r="K59">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>38</v>
+      </c>
+      <c r="B60">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>3</v>
+      </c>
+      <c r="G60">
+        <v>4</v>
+      </c>
+      <c r="I60">
+        <v>19</v>
+      </c>
+      <c r="J60">
+        <v>0.19999</v>
+      </c>
+      <c r="K60">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>39</v>
+      </c>
+      <c r="B61">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>3</v>
+      </c>
+      <c r="G61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <v>0.2</v>
+      </c>
+      <c r="K61">
+        <v>7.2999999999999996E-4</v>
+      </c>
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>40</v>
+      </c>
+      <c r="B62">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>0.42871999999999999</v>
+      </c>
+      <c r="C64">
+        <v>0.92967</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>0.42843999999999999</v>
+      </c>
+      <c r="C65">
+        <v>0.86009999999999998</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>0.42852000000000001</v>
+      </c>
+      <c r="C66">
+        <v>0.79132999999999998</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>0.42835000000000001</v>
+      </c>
+      <c r="C67">
+        <v>0.72353999999999996</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>0.42870999999999998</v>
+      </c>
+      <c r="C68">
+        <v>0.65717000000000003</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>0.42848000000000003</v>
+      </c>
+      <c r="C69">
+        <v>0.59136</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>7</v>
+      </c>
+      <c r="B70">
+        <v>0.42825999999999997</v>
+      </c>
+      <c r="C70">
+        <v>0.52825999999999995</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>0.42858000000000002</v>
+      </c>
+      <c r="C71">
+        <v>0.46578000000000003</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>9</v>
+      </c>
+      <c r="B72">
+        <v>0.42863000000000001</v>
+      </c>
+      <c r="C72">
+        <v>0.40632000000000001</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <v>0.42882999999999999</v>
+      </c>
+      <c r="C73">
+        <v>0.34909000000000001</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <v>0.42877999999999999</v>
+      </c>
+      <c r="C74">
+        <v>0.29585</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <v>0.42869000000000002</v>
+      </c>
+      <c r="C75">
+        <v>0.24607999999999999</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>0.42867</v>
+      </c>
+      <c r="C76">
+        <v>0.19999</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>0.42870999999999998</v>
+      </c>
+      <c r="C77">
+        <v>0.15875</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78">
+        <v>0.42859000000000003</v>
+      </c>
+      <c r="C78">
+        <v>0.12293999999999999</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>3</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>16</v>
+      </c>
+      <c r="B79">
+        <v>0.42836000000000002</v>
+      </c>
+      <c r="C79">
+        <v>9.2030000000000001E-2</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80">
+        <v>0.42851</v>
+      </c>
+      <c r="C80">
+        <v>6.7129999999999995E-2</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>18</v>
+      </c>
+      <c r="B81">
+        <v>0.42881000000000002</v>
+      </c>
+      <c r="C81">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>3</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>19</v>
+      </c>
+      <c r="B82">
+        <v>0.42832999999999999</v>
+      </c>
+      <c r="C82">
+        <v>3.1640000000000001E-2</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>20</v>
+      </c>
+      <c r="B83">
+        <v>0.42864999999999998</v>
+      </c>
+      <c r="C83">
+        <v>2.0379999999999999E-2</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lab3/lab3 excel.xlsx
+++ b/lab3/lab3 excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard.qiu\Desktop\Computer_Network\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardqiu/Desktop/Computer_Network/lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CFD20-815D-4CA0-9A07-53A4CFE71033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A10B3-2190-404E-BCAB-8FBC98B3BC42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-204" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{3D23E154-5532-A544-B8B1-614FAFCF8A06}"/>
+    <workbookView xWindow="51200" yWindow="2200" windowWidth="38400" windowHeight="21100" xr2:uid="{3D23E154-5532-A544-B8B1-614FAFCF8A06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2555,7 +2555,567 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#channels need to achieve 1% blocking P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7811929521782972E-3"/>
+                  <c:y val="-1.3966101694915254E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$25:$Y$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Z$25:$Z$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBD2-9647-A577-9934C42EE606}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="340186512"/>
+        <c:axId val="340188784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="340186512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Erlang load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340188784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="340188784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#Channels</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="340186512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3111,6 +3671,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3144,6 +4220,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>760159</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>563785</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>46383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BF77BA-2E1E-54FE-FB48-611B70C01C13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3451,27 +4563,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3208252-7956-AD46-A008-3C1850DF4AF4}">
   <dimension ref="A1:AF117"/>
   <sheetViews>
-    <sheetView topLeftCell="O50" zoomScale="125" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" topLeftCell="Y22" zoomScale="223" workbookViewId="0">
+      <selection activeCell="AH31" sqref="AH31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="13" max="13" width="12.796875" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
     <col min="21" max="21" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.796875" style="1"/>
-    <col min="26" max="26" width="10.796875" customWidth="1"/>
+    <col min="22" max="23" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3557,7 +4669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.24</v>
       </c>
@@ -3645,7 +4757,7 @@
         <v>0.90909090910000001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.24</v>
       </c>
@@ -3733,7 +4845,7 @@
         <v>0.81967213110000003</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.24</v>
       </c>
@@ -3821,7 +4933,7 @@
         <v>0.73206442169999997</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.24</v>
       </c>
@@ -3909,7 +5021,7 @@
         <v>0.64666321780000002</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.24</v>
       </c>
@@ -3997,7 +5109,7 @@
         <v>0.56395217689999999</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.24</v>
       </c>
@@ -4085,7 +5197,7 @@
         <v>0.4845149037</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.24</v>
       </c>
@@ -4173,7 +5285,7 @@
         <v>0.40904078300000002</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.24</v>
       </c>
@@ -4261,7 +5373,7 @@
         <v>0.33831843290000002</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.24</v>
       </c>
@@ -4349,7 +5461,7 @@
         <v>0.27320794390000003</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.24</v>
       </c>
@@ -4437,7 +5549,7 @@
         <v>0.21458234309999999</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G12">
         <v>0.01</v>
       </c>
@@ -4509,7 +5621,7 @@
         <v>0.1632323332</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.02</v>
       </c>
@@ -4597,7 +5709,7 @@
         <v>0.1197391884</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.02</v>
       </c>
@@ -4685,7 +5797,7 @@
         <v>8.4338862700000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.02</v>
       </c>
@@ -4770,7 +5882,7 @@
         <v>5.6819143400000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.02</v>
       </c>
@@ -4855,7 +5967,7 @@
         <v>3.6496945500000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.02</v>
       </c>
@@ -4940,7 +6052,7 @@
         <v>2.2301872E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.02</v>
       </c>
@@ -5025,7 +6137,7 @@
         <v>1.29488752E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.02</v>
       </c>
@@ -5110,7 +6222,7 @@
         <v>7.1424382000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.02</v>
       </c>
@@ -5195,7 +6307,7 @@
         <v>3.7450995000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.02</v>
       </c>
@@ -5280,7 +6392,7 @@
         <v>1.8690499000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.02</v>
       </c>
@@ -5298,7 +6410,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.02</v>
       </c>
@@ -5313,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G24">
         <v>1</v>
       </c>
@@ -5329,11 +6441,11 @@
       <c r="Y24" t="s">
         <v>6</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="Z24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G25">
         <v>2</v>
       </c>
@@ -5353,7 +6465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G26">
         <v>3</v>
       </c>
@@ -5373,7 +6485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G27">
         <v>4</v>
       </c>
@@ -5393,7 +6505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G28">
         <v>5</v>
       </c>
@@ -5413,7 +6525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G29">
         <v>6</v>
       </c>
@@ -5433,7 +6545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G30">
         <v>7</v>
       </c>
@@ -5453,7 +6565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G31">
         <v>8</v>
       </c>
@@ -5473,7 +6585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="G32">
         <v>9</v>
       </c>
@@ -5493,7 +6605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G33">
         <v>10</v>
       </c>
@@ -5513,7 +6625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G34">
         <v>11</v>
       </c>
@@ -5533,7 +6645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G35">
         <v>12</v>
       </c>
@@ -5547,7 +6659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G36">
         <v>13</v>
       </c>
@@ -5561,7 +6673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G37">
         <v>14</v>
       </c>
@@ -5575,7 +6687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G38">
         <v>15</v>
       </c>
@@ -5589,7 +6701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G39">
         <v>16</v>
       </c>
@@ -5603,7 +6715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G40">
         <v>17</v>
       </c>
@@ -5617,7 +6729,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G41">
         <v>18</v>
       </c>
@@ -5631,7 +6743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G42">
         <v>19</v>
       </c>
@@ -5645,7 +6757,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G43">
         <v>20</v>
       </c>
@@ -5659,12 +6771,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="7:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="7:26" x14ac:dyDescent="0.2">
       <c r="G44">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H51" t="s">
         <v>12</v>
       </c>
@@ -5675,7 +6787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="8:32" x14ac:dyDescent="0.2">
       <c r="I53" t="s">
         <v>9</v>
       </c>
@@ -5692,7 +6804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="8:32" x14ac:dyDescent="0.2">
       <c r="I54" s="3">
         <v>1</v>
       </c>
@@ -5760,7 +6872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H55" t="s">
         <v>14</v>
       </c>
@@ -5816,7 +6928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H56">
         <v>1</v>
       </c>
@@ -5826,7 +6938,7 @@
       <c r="V56"/>
       <c r="W56"/>
     </row>
-    <row r="57" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H57">
         <v>2</v>
       </c>
@@ -5846,7 +6958,7 @@
         <v>0.79782311340000001</v>
       </c>
     </row>
-    <row r="58" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H58">
         <v>3</v>
       </c>
@@ -5884,7 +6996,7 @@
         <v>0.93985098519999999</v>
       </c>
     </row>
-    <row r="59" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H59">
         <v>4</v>
       </c>
@@ -5922,7 +7034,7 @@
         <v>0.96751953199999996</v>
       </c>
     </row>
-    <row r="60" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H60">
         <v>5</v>
       </c>
@@ -5960,7 +7072,7 @@
         <v>0.98611945810000001</v>
       </c>
     </row>
-    <row r="61" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H61">
         <v>6</v>
       </c>
@@ -6001,7 +7113,7 @@
         <v>0.99520937050000002</v>
       </c>
     </row>
-    <row r="62" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H62">
         <v>7</v>
       </c>
@@ -6039,7 +7151,7 @@
         <v>0.9986125387</v>
       </c>
     </row>
-    <row r="63" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H63">
         <v>8</v>
       </c>
@@ -6077,7 +7189,7 @@
         <v>0.99965164660000005</v>
       </c>
     </row>
-    <row r="64" spans="8:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="8:32" x14ac:dyDescent="0.2">
       <c r="H64">
         <v>9</v>
       </c>
@@ -6115,7 +7227,7 @@
         <v>0.99992249950000001</v>
       </c>
     </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H65">
         <v>10</v>
       </c>
@@ -6153,7 +7265,7 @@
         <v>0.99998449580000004</v>
       </c>
     </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H66">
         <v>11</v>
       </c>
@@ -6191,7 +7303,7 @@
         <v>0.9999971809</v>
       </c>
     </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H67">
         <v>12</v>
       </c>
@@ -6229,7 +7341,7 @@
         <v>0.99999953009999998</v>
       </c>
     </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H68">
         <v>13</v>
       </c>
@@ -6267,7 +7379,7 @@
         <v>0.99999992770000001</v>
       </c>
     </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H69">
         <v>14</v>
       </c>
@@ -6305,7 +7417,7 @@
         <v>0.99999998970000004</v>
       </c>
     </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H70">
         <v>15</v>
       </c>
@@ -6343,7 +7455,7 @@
         <v>0.9999999986</v>
       </c>
     </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H71">
         <v>16</v>
       </c>
@@ -6381,7 +7493,7 @@
         <v>0.99999999979999998</v>
       </c>
     </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H72">
         <v>17</v>
       </c>
@@ -6419,7 +7531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H73">
         <v>18</v>
       </c>
@@ -6457,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H74">
         <v>19</v>
       </c>
@@ -6495,7 +7607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H75">
         <v>20</v>
       </c>
@@ -6533,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
       <c r="I76" t="s">
         <v>11</v>
       </c>
@@ -6542,7 +7654,7 @@
       </c>
       <c r="W76"/>
     </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H77">
         <v>1</v>
       </c>
@@ -6552,7 +7664,7 @@
       <c r="V77"/>
       <c r="W77"/>
     </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H78">
         <v>2</v>
       </c>
@@ -6567,7 +7679,7 @@
       </c>
       <c r="W78"/>
     </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H79">
         <v>3</v>
       </c>
@@ -6588,7 +7700,7 @@
         <v>0.6538663186</v>
       </c>
     </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
       <c r="H80">
         <v>4</v>
       </c>
@@ -6609,7 +7721,7 @@
         <v>0.81308781210000003</v>
       </c>
     </row>
-    <row r="81" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H81">
         <v>5</v>
       </c>
@@ -6630,7 +7742,7 @@
         <v>0.92012299659999996</v>
       </c>
     </row>
-    <row r="82" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H82">
         <v>6</v>
       </c>
@@ -6651,7 +7763,7 @@
         <v>0.97243183070000005</v>
       </c>
     </row>
-    <row r="83" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H83">
         <v>7</v>
       </c>
@@ -6672,7 +7784,7 @@
         <v>0.99201571170000002</v>
       </c>
     </row>
-    <row r="84" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H84">
         <v>8</v>
       </c>
@@ -6693,7 +7805,7 @@
         <v>0.99799536479999995</v>
       </c>
     </row>
-    <row r="85" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H85">
         <v>9</v>
       </c>
@@ -6714,7 +7826,7 @@
         <v>0.99955401529999999</v>
       </c>
     </row>
-    <row r="86" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H86">
         <v>10</v>
       </c>
@@ -6735,7 +7847,7 @@
         <v>0.99991077920000004</v>
       </c>
     </row>
-    <row r="87" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H87">
         <v>11</v>
       </c>
@@ -6756,7 +7868,7 @@
         <v>0.99998377709999997</v>
       </c>
     </row>
-    <row r="88" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H88">
         <v>12</v>
       </c>
@@ -6777,7 +7889,7 @@
         <v>0.9999972962</v>
       </c>
     </row>
-    <row r="89" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H89">
         <v>13</v>
       </c>
@@ -6798,7 +7910,7 @@
         <v>0.999999584</v>
       </c>
     </row>
-    <row r="90" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H90">
         <v>14</v>
       </c>
@@ -6819,7 +7931,7 @@
         <v>0.99999994059999997</v>
       </c>
     </row>
-    <row r="91" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H91">
         <v>15</v>
       </c>
@@ -6840,7 +7952,7 @@
         <v>0.99999999210000001</v>
       </c>
     </row>
-    <row r="92" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="92" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H92">
         <v>16</v>
       </c>
@@ -6861,7 +7973,7 @@
         <v>0.99999999900000003</v>
       </c>
     </row>
-    <row r="93" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H93">
         <v>17</v>
       </c>
@@ -6882,7 +7994,7 @@
         <v>0.99999999989999999</v>
       </c>
     </row>
-    <row r="94" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="94" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H94">
         <v>18</v>
       </c>
@@ -6903,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="95" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H95">
         <v>19</v>
       </c>
@@ -6924,7 +8036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="96" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H96">
         <v>20</v>
       </c>
@@ -6945,7 +8057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:24" x14ac:dyDescent="0.2">
       <c r="I97" t="s">
         <v>16</v>
       </c>
@@ -6954,7 +8066,7 @@
       </c>
       <c r="W97"/>
     </row>
-    <row r="98" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H98">
         <v>1</v>
       </c>
@@ -6964,7 +8076,7 @@
       <c r="V98"/>
       <c r="W98"/>
     </row>
-    <row r="99" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H99">
         <v>2</v>
       </c>
@@ -6979,7 +8091,7 @@
       </c>
       <c r="W99"/>
     </row>
-    <row r="100" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H100">
         <v>3</v>
       </c>
@@ -7000,7 +8112,7 @@
         <v>0.60777915439999997</v>
       </c>
     </row>
-    <row r="101" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H101">
         <v>4</v>
       </c>
@@ -7021,7 +8133,7 @@
         <v>0.78820074340000001</v>
       </c>
     </row>
-    <row r="102" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H102">
         <v>5</v>
       </c>
@@ -7042,7 +8154,7 @@
         <v>0.90948749719999999</v>
       </c>
     </row>
-    <row r="103" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H103">
         <v>6</v>
       </c>
@@ -7063,7 +8175,7 @@
         <v>0.96876117159999997</v>
       </c>
     </row>
-    <row r="104" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H104">
         <v>7</v>
       </c>
@@ -7084,7 +8196,7 @@
         <v>0.99095261609999996</v>
       </c>
     </row>
-    <row r="105" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H105">
         <v>8</v>
       </c>
@@ -7105,7 +8217,7 @@
         <v>0.99772845070000005</v>
       </c>
     </row>
-    <row r="106" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H106">
         <v>9</v>
       </c>
@@ -7126,7 +8238,7 @@
         <v>0.99949463309999997</v>
       </c>
     </row>
-    <row r="107" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H107">
         <v>10</v>
       </c>
@@ -7147,7 +8259,7 @@
         <v>0.9998988996</v>
       </c>
     </row>
-    <row r="108" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H108">
         <v>11</v>
       </c>
@@ -7168,7 +8280,7 @@
         <v>0.9999816171</v>
       </c>
     </row>
-    <row r="109" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H109">
         <v>12</v>
       </c>
@@ -7189,7 +8301,7 @@
         <v>0.99999693609999996</v>
       </c>
     </row>
-    <row r="110" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H110">
         <v>13</v>
       </c>
@@ -7210,7 +8322,7 @@
         <v>0.99999952859999997</v>
       </c>
     </row>
-    <row r="111" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H111">
         <v>14</v>
       </c>
@@ -7231,7 +8343,7 @@
         <v>0.99999993269999998</v>
       </c>
     </row>
-    <row r="112" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H112">
         <v>15</v>
       </c>
@@ -7252,7 +8364,7 @@
         <v>0.99999999100000003</v>
       </c>
     </row>
-    <row r="113" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H113">
         <v>16</v>
       </c>
@@ -7273,7 +8385,7 @@
         <v>0.99999999890000002</v>
       </c>
     </row>
-    <row r="114" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H114">
         <v>17</v>
       </c>
@@ -7294,7 +8406,7 @@
         <v>0.99999999989999999</v>
       </c>
     </row>
-    <row r="115" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H115">
         <v>18</v>
       </c>
@@ -7315,7 +8427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H116">
         <v>19</v>
       </c>
@@ -7336,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="8:24" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:24" x14ac:dyDescent="0.2">
       <c r="H117">
         <v>20</v>
       </c>
@@ -7368,23 +8480,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5782D708-4CF5-48A8-AB14-BB595C873BD3}">
   <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A63" sqref="A63:G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -7428,7 +8540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7472,7 +8584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7516,7 +8628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7560,7 +8672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7604,7 +8716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7648,7 +8760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7692,7 +8804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7736,7 +8848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7780,7 +8892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7824,7 +8936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7868,7 +8980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7912,7 +9024,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7956,7 +9068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8000,7 +9112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8044,7 +9156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8088,7 +9200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8132,7 +9244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8176,7 +9288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8220,7 +9332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8264,7 +9376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I21" t="s">
         <v>25</v>
       </c>
@@ -8287,7 +9399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -8331,7 +9443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8375,7 +9487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -8419,7 +9531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -8463,7 +9575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -8507,7 +9619,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -8551,7 +9663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>7</v>
       </c>
@@ -8595,7 +9707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8</v>
       </c>
@@ -8639,7 +9751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>9</v>
       </c>
@@ -8683,7 +9795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>10</v>
       </c>
@@ -8727,7 +9839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>11</v>
       </c>
@@ -8771,7 +9883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>12</v>
       </c>
@@ -8815,7 +9927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>13</v>
       </c>
@@ -8859,7 +9971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>14</v>
       </c>
@@ -8903,7 +10015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>15</v>
       </c>
@@ -8947,7 +10059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>16</v>
       </c>
@@ -8991,7 +10103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>17</v>
       </c>
@@ -9035,7 +10147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>18</v>
       </c>
@@ -9079,7 +10191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>19</v>
       </c>
@@ -9123,7 +10235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I41" t="s">
         <v>25</v>
       </c>
@@ -9146,7 +10258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20</v>
       </c>
@@ -9190,7 +10302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>21</v>
       </c>
@@ -9234,7 +10346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>22</v>
       </c>
@@ -9278,7 +10390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>23</v>
       </c>
@@ -9322,7 +10434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>24</v>
       </c>
@@ -9366,7 +10478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>25</v>
       </c>
@@ -9410,7 +10522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>26</v>
       </c>
@@ -9454,7 +10566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>27</v>
       </c>
@@ -9498,7 +10610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>28</v>
       </c>
@@ -9542,7 +10654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>29</v>
       </c>
@@ -9586,7 +10698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>30</v>
       </c>
@@ -9630,7 +10742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>31</v>
       </c>
@@ -9674,7 +10786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>32</v>
       </c>
@@ -9718,7 +10830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>33</v>
       </c>
@@ -9762,7 +10874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>34</v>
       </c>
@@ -9806,7 +10918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>35</v>
       </c>
@@ -9850,7 +10962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>36</v>
       </c>
@@ -9894,7 +11006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>37</v>
       </c>
@@ -9938,7 +11050,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>38</v>
       </c>
@@ -9982,7 +11094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>39</v>
       </c>
@@ -10026,7 +11138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>40</v>
       </c>
@@ -10049,7 +11161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>25</v>
       </c>
@@ -10072,7 +11184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1</v>
       </c>
@@ -10095,7 +11207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -10118,7 +11230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -10141,7 +11253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4</v>
       </c>
@@ -10164,7 +11276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5</v>
       </c>
@@ -10187,7 +11299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>6</v>
       </c>
@@ -10210,7 +11322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>7</v>
       </c>
@@ -10233,7 +11345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8</v>
       </c>
@@ -10256,7 +11368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>9</v>
       </c>
@@ -10279,7 +11391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>10</v>
       </c>
@@ -10302,7 +11414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>11</v>
       </c>
@@ -10325,7 +11437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>12</v>
       </c>
@@ -10348,7 +11460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>13</v>
       </c>
@@ -10371,7 +11483,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>14</v>
       </c>
@@ -10394,7 +11506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>15</v>
       </c>
@@ -10417,7 +11529,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>16</v>
       </c>
@@ -10440,7 +11552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>17</v>
       </c>
@@ -10463,7 +11575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>18</v>
       </c>
@@ -10486,7 +11598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>19</v>
       </c>
@@ -10509,7 +11621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>20</v>
       </c>
